--- a/AIP-HONDURAS-CHARTS.xlsx
+++ b/AIP-HONDURAS-CHARTS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -253,12 +253,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,9 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -287,6 +297,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,7 +383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,7 +595,7 @@
   <dimension ref="C3:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D43"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,13 +623,14 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>

--- a/AIP-HONDURAS-CHARTS.xlsx
+++ b/AIP-HONDURAS-CHARTS.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -595,7 +593,7 @@
   <dimension ref="C3:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,28 +1292,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>